--- a/backend/uploads/Book1.xlsx
+++ b/backend/uploads/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d15755aa0254ee6d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{2C38C749-E7AD-4DB6-A85C-3512819B85C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6D5951-3D8C-4E67-AA77-AD02FCB47967}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4FD7C8-5C6C-48F6-BB64-EDBD8A9DC32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B5A72733-703C-457A-9A9F-9E629EB5B7F1}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>USL</t>
   </si>
   <si>
     <t>LSL</t>
+  </si>
+  <si>
+    <t>Measurement</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7245EF9-6721-4518-8842-96DB64005581}" name="Table1" displayName="Table1" ref="A1:C50" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:C50" xr:uid="{A7245EF9-6721-4518-8842-96DB64005581}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C61109E7-4E7F-41B4-86C7-F07B37464B4E}" name="Value">
+    <tableColumn id="1" xr3:uid="{C61109E7-4E7F-41B4-86C7-F07B37464B4E}" name="Measurement">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{EBA94CFE-F71A-49E3-80FB-214685B1121D}" name="USL"/>
@@ -439,26 +439,26 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C50"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f ca="1">RAND()</f>
-        <v>0.24566299481605425</v>
+        <v>0.54061075713707574</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -470,7 +470,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A50" ca="1" si="0">RAND()</f>
-        <v>0.74212227528412378</v>
+        <v>0.59615685581640787</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -482,7 +482,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87834033991703953</v>
+        <v>0.54068407489593284</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -494,7 +494,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80116087761003074</v>
+        <v>0.17586328817517261</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -506,7 +506,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31598010734427717</v>
+        <v>0.35682554427220037</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -518,7 +518,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35835224843154267</v>
+        <v>0.26281889393818614</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -530,7 +530,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5797910275821514</v>
+        <v>0.86240805536485166</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -542,7 +542,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58127629677894332</v>
+        <v>0.66539881993431327</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -554,7 +554,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25114112392122345</v>
+        <v>4.0938585833292018E-2</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -566,7 +566,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72294337895634819</v>
+        <v>0.44025389242171797</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -578,7 +578,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15635054729709585</v>
+        <v>0.20307889999889284</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -590,7 +590,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15103050984636313</v>
+        <v>0.57984860448041797</v>
       </c>
       <c r="B13">
         <v>0.9</v>
@@ -602,7 +602,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63523647987473342</v>
+        <v>0.18433769733409011</v>
       </c>
       <c r="B14">
         <v>0.9</v>
@@ -614,7 +614,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37468687728099082</v>
+        <v>0.16303645524077248</v>
       </c>
       <c r="B15">
         <v>0.9</v>
@@ -626,7 +626,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13407671773921648</v>
+        <v>0.55456460286143683</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -638,7 +638,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54167285556750189</v>
+        <v>0.34036847182247754</v>
       </c>
       <c r="B17">
         <v>0.9</v>
@@ -650,7 +650,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48674797942267545</v>
+        <v>0.15785258249508416</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -662,7 +662,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37393885669227722</v>
+        <v>0.27889362007524654</v>
       </c>
       <c r="B19">
         <v>0.9</v>
@@ -674,7 +674,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79218069597176966</v>
+        <v>0.10601922346221382</v>
       </c>
       <c r="B20">
         <v>0.9</v>
@@ -686,7 +686,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20873548280623166</v>
+        <v>0.11379336520971728</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -698,7 +698,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16062891823607051</v>
+        <v>0.55948643355338179</v>
       </c>
       <c r="B22">
         <v>0.9</v>
@@ -710,7 +710,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38747619268129052</v>
+        <v>0.14160227833216488</v>
       </c>
       <c r="B23">
         <v>0.9</v>
@@ -722,7 +722,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79672025495233867</v>
+        <v>0.79903551752525415</v>
       </c>
       <c r="B24">
         <v>0.9</v>
@@ -734,7 +734,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98658818689246108</v>
+        <v>0.12538088679037029</v>
       </c>
       <c r="B25">
         <v>0.9</v>
@@ -746,7 +746,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36496793633074909</v>
+        <v>0.17583835406254666</v>
       </c>
       <c r="B26">
         <v>0.9</v>
@@ -758,7 +758,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7921881065365461E-2</v>
+        <v>3.8102259786075621E-2</v>
       </c>
       <c r="B27">
         <v>0.9</v>
@@ -770,7 +770,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45559730165402801</v>
+        <v>0.90440977592488714</v>
       </c>
       <c r="B28">
         <v>0.9</v>
@@ -782,7 +782,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3778428921585244</v>
+        <v>0.40520014563129969</v>
       </c>
       <c r="B29">
         <v>0.9</v>
@@ -794,7 +794,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3730330326747604</v>
+        <v>0.84547178218482166</v>
       </c>
       <c r="B30">
         <v>0.9</v>
@@ -806,7 +806,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11051873931339207</v>
+        <v>0.46942288069871041</v>
       </c>
       <c r="B31">
         <v>0.9</v>
@@ -818,7 +818,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8454522626995824E-2</v>
+        <v>0.26219483374868113</v>
       </c>
       <c r="B32">
         <v>0.9</v>
@@ -830,7 +830,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>1.049003853095809E-3</v>
+        <v>0.34040125947418265</v>
       </c>
       <c r="B33">
         <v>0.9</v>
@@ -842,7 +842,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77707584293950904</v>
+        <v>0.68903345761377222</v>
       </c>
       <c r="B34">
         <v>0.9</v>
@@ -854,7 +854,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.863244405490042</v>
+        <v>0.68182410383373371</v>
       </c>
       <c r="B35">
         <v>0.9</v>
@@ -866,7 +866,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80587231519382008</v>
+        <v>0.55518388750631931</v>
       </c>
       <c r="B36">
         <v>0.9</v>
@@ -878,7 +878,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45156884750757931</v>
+        <v>0.97811558836895174</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -890,7 +890,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59184070604232386</v>
+        <v>0.95011023591318444</v>
       </c>
       <c r="B38">
         <v>0.9</v>
@@ -902,7 +902,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96249886748376257</v>
+        <v>0.54618175166913008</v>
       </c>
       <c r="B39">
         <v>0.9</v>
@@ -914,7 +914,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65902572698245576</v>
+        <v>7.1494875457279838E-2</v>
       </c>
       <c r="B40">
         <v>0.9</v>
@@ -926,7 +926,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25291066872721402</v>
+        <v>0.29969947041353817</v>
       </c>
       <c r="B41">
         <v>0.9</v>
@@ -938,7 +938,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5694485655307084E-2</v>
+        <v>0.75937871443792626</v>
       </c>
       <c r="B42">
         <v>0.9</v>
@@ -950,7 +950,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25503839255991434</v>
+        <v>0.2660457799610787</v>
       </c>
       <c r="B43">
         <v>0.9</v>
@@ -962,7 +962,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5777179842624416E-2</v>
+        <v>0.81098095935880354</v>
       </c>
       <c r="B44">
         <v>0.9</v>
@@ -974,7 +974,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95021750991588183</v>
+        <v>0.29916166489061913</v>
       </c>
       <c r="B45">
         <v>0.9</v>
@@ -986,7 +986,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12242754047871129</v>
+        <v>0.60167794810598474</v>
       </c>
       <c r="B46">
         <v>0.9</v>
@@ -998,7 +998,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78666212395314961</v>
+        <v>0.46808711848146045</v>
       </c>
       <c r="B47">
         <v>0.9</v>
@@ -1010,7 +1010,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41239755853026994</v>
+        <v>0.47854918517717382</v>
       </c>
       <c r="B48">
         <v>0.9</v>
@@ -1022,7 +1022,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95250512426807588</v>
+        <v>0.97559112985689622</v>
       </c>
       <c r="B49">
         <v>0.9</v>
@@ -1034,7 +1034,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7357198789577033</v>
+        <v>0.52197931179027612</v>
       </c>
       <c r="B50">
         <v>0.9</v>
